--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T45.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T45.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2467867047954254</v>
+        <v>-0.01570068801409834</v>
       </c>
       <c r="C2">
-        <v>1.965627250256364</v>
+        <v>2.201232587161126</v>
       </c>
       <c r="D2">
-        <v>16.99728200016457</v>
+        <v>18.29599404310352</v>
       </c>
       <c r="E2">
-        <v>4.122776006547599</v>
+        <v>4.277381680783645</v>
       </c>
       <c r="F2">
-        <v>4.217012833585621</v>
+        <v>4.382982421602256</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7368261504318258</v>
+        <v>0.9935082891590984</v>
       </c>
       <c r="C3">
-        <v>2.063717312393585</v>
+        <v>2.320399451120858</v>
       </c>
       <c r="D3">
-        <v>18.13293696558126</v>
+        <v>20.93761159639632</v>
       </c>
       <c r="E3">
-        <v>4.25827863879071</v>
+        <v>4.575763498739453</v>
       </c>
       <c r="F3">
-        <v>4.292743224224672</v>
+        <v>4.571715127081522</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6669142165641152</v>
+        <v>-0.1734791790674897</v>
       </c>
       <c r="C4">
-        <v>1.444362393660887</v>
+        <v>0.9918456812746188</v>
       </c>
       <c r="D4">
-        <v>8.663438066345801</v>
+        <v>3.811757031605553</v>
       </c>
       <c r="E4">
-        <v>2.943371887197709</v>
+        <v>1.952372154996468</v>
       </c>
       <c r="F4">
-        <v>2.941296437053149</v>
+        <v>1.997937521471647</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T45.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_T45.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01570068801409834</v>
+        <v>-0.03459060192254842</v>
       </c>
       <c r="C2">
-        <v>2.201232587161126</v>
+        <v>2.120780142017438</v>
       </c>
       <c r="D2">
-        <v>18.29599404310352</v>
+        <v>17.47281255924218</v>
       </c>
       <c r="E2">
-        <v>4.277381680783645</v>
+        <v>4.180049348900343</v>
       </c>
       <c r="F2">
-        <v>4.382982421602256</v>
+        <v>4.278270417603791</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9935082891590984</v>
+        <v>0.9554726533143864</v>
       </c>
       <c r="C3">
-        <v>2.320399451120858</v>
+        <v>2.224672895214267</v>
       </c>
       <c r="D3">
-        <v>20.93761159639632</v>
+        <v>20.02789313565289</v>
       </c>
       <c r="E3">
-        <v>4.575763498739453</v>
+        <v>4.475253415802605</v>
       </c>
       <c r="F3">
-        <v>4.571715127081522</v>
+        <v>4.470327414903789</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1734791790674897</v>
+        <v>-0.1311017249985545</v>
       </c>
       <c r="C4">
-        <v>0.9918456812746188</v>
+        <v>0.9759568923264486</v>
       </c>
       <c r="D4">
-        <v>3.811757031605553</v>
+        <v>3.643887691671368</v>
       </c>
       <c r="E4">
-        <v>1.952372154996468</v>
+        <v>1.908896982990797</v>
       </c>
       <c r="F4">
-        <v>1.997937521471647</v>
+        <v>1.953862579171877</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
